--- a/LondonBorough.xlsx
+++ b/LondonBorough.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6730"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
@@ -1117,16 +1117,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="18" style="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1352,855 +1349,847 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="50" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="75" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="75" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="75" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="75" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B92" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="50" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="50" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B128" s="3" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.milesfaster.co.uk/postcodes/e1-london-hotels.htm"/>
-    <hyperlink ref="B65" r:id="rId2" display="https://www.milesfaster.co.uk/postcodes/se1-london-hotels.htm"/>
+    <hyperlink ref="B64" r:id="rId2" display="https://www.milesfaster.co.uk/postcodes/se1-london-hotels.htm"/>
     <hyperlink ref="B4" r:id="rId3" display="https://www.milesfaster.co.uk/hotels/london/e2/"/>
-    <hyperlink ref="B67" r:id="rId4" display="https://www.milesfaster.co.uk/postcodes/se3-london-hotels.htm"/>
+    <hyperlink ref="B66" r:id="rId4" display="https://www.milesfaster.co.uk/postcodes/se3-london-hotels.htm"/>
     <hyperlink ref="B5" r:id="rId5" display="https://www.milesfaster.co.uk/postcodes/e3-london-hotels.htm"/>
     <hyperlink ref="B6" r:id="rId6" display="https://www.milesfaster.co.uk/postcodes/e4-london-hotels.htm"/>
-    <hyperlink ref="B69" r:id="rId7" display="https://www.milesfaster.co.uk/postcodes/se5-london-hotels.htm"/>
+    <hyperlink ref="B68" r:id="rId7" display="https://www.milesfaster.co.uk/postcodes/se5-london-hotels.htm"/>
     <hyperlink ref="B8" r:id="rId8" display="https://www.milesfaster.co.uk/postcodes/e6-east-ham-hotels-london.htm"/>
     <hyperlink ref="B9" r:id="rId9" display="https://www.milesfaster.co.uk/hotels/london/e7/"/>
-    <hyperlink ref="B73" r:id="rId10" display="https://www.milesfaster.co.uk/postcodes/se9-london-hotels.htm"/>
+    <hyperlink ref="B72" r:id="rId10" display="https://www.milesfaster.co.uk/postcodes/se9-london-hotels.htm"/>
     <hyperlink ref="B11" r:id="rId11" display="https://www.milesfaster.co.uk/postcodes/e9-london-hotels.htm"/>
-    <hyperlink ref="B74" r:id="rId12" display="https://www.milesfaster.co.uk/postcodes/se10-london-hotels.htm"/>
+    <hyperlink ref="B73" r:id="rId12" display="https://www.milesfaster.co.uk/postcodes/se10-london-hotels.htm"/>
     <hyperlink ref="B12" r:id="rId13" display="https://www.milesfaster.co.uk/postcodes/e10-london-hotels.htm"/>
     <hyperlink ref="B15" r:id="rId14" display="https://www.milesfaster.co.uk/postcodes/e13-london-hotels.htm"/>
     <hyperlink ref="B16" r:id="rId15" display="https://www.milesfaster.co.uk/postcodes/e14-london-hotels.htm"/>
     <hyperlink ref="B17" r:id="rId16" display="https://www.milesfaster.co.uk/postcodes/e15-stratford-search.htm"/>
-    <hyperlink ref="B80" r:id="rId17" display="https://www.milesfaster.co.uk/postcodes/se16-london-hotels.htm"/>
+    <hyperlink ref="B79" r:id="rId17" display="https://www.milesfaster.co.uk/postcodes/se16-london-hotels.htm"/>
     <hyperlink ref="B18" r:id="rId18" display="https://www.milesfaster.co.uk/hotels/london/e16/"/>
     <hyperlink ref="B19" r:id="rId19" display="https://www.milesfaster.co.uk/hotels/london/e17/"/>
-    <hyperlink ref="B83" r:id="rId20" display="https://www.milesfaster.co.uk/postcodes/se19-london-hotels.htm"/>
+    <hyperlink ref="B82" r:id="rId20" display="https://www.milesfaster.co.uk/postcodes/se19-london-hotels.htm"/>
     <hyperlink ref="B21" r:id="rId21" display="https://www.milesfaster.co.uk/postcodes/e20-stratford-olympic-park.htm"/>
     <hyperlink ref="B23" r:id="rId22" display="https://www.milesfaster.co.uk/postcodes/wc1-london-hotels.htm"/>
     <hyperlink ref="B24" r:id="rId23" display="https://www.milesfaster.co.uk/postcodes/wc2-london-hotels.htm"/>
-    <hyperlink ref="B88" r:id="rId24" display="https://www.milesfaster.co.uk/hotels/london/se24/"/>
+    <hyperlink ref="B87" r:id="rId24" display="https://www.milesfaster.co.uk/hotels/london/se24/"/>
     <hyperlink ref="B26" r:id="rId25" display="https://www.milesfaster.co.uk/postcodes/ec1-london-hotels.htm"/>
     <hyperlink ref="B27" r:id="rId26" display="https://www.milesfaster.co.uk/postcodes/ec2-london-hotels.htm"/>
     <hyperlink ref="B28" r:id="rId27" display="https://www.milesfaster.co.uk/postcodes/ec3-london-hotels.htm"/>
     <hyperlink ref="B29" r:id="rId28" display="https://www.milesfaster.co.uk/postcodes/ec4-london-hotels.htm"/>
-    <hyperlink ref="B31" r:id="rId29" display="https://www.milesfaster.co.uk/postcodes/n1-london-hotels.htm"/>
-    <hyperlink ref="B94" r:id="rId30" display="https://www.milesfaster.co.uk/postcodes/sw1-london-hotels.htm"/>
-    <hyperlink ref="B33" r:id="rId31" display="https://www.milesfaster.co.uk/postcodes/n3-finchley-hotels-london.htm"/>
-    <hyperlink ref="B96" r:id="rId32" display="https://www.milesfaster.co.uk/hotels/london/sw3/"/>
-    <hyperlink ref="B34" r:id="rId33" display="https://www.milesfaster.co.uk/postcodes/n4-london-hotels.htm"/>
-    <hyperlink ref="B97" r:id="rId34" display="https://www.milesfaster.co.uk/postcodes/sw4-london-hotels.htm"/>
-    <hyperlink ref="B98" r:id="rId35" display="https://www.milesfaster.co.uk/postcodes/sw5-london-hotels.htm"/>
-    <hyperlink ref="B99" r:id="rId36" display="https://www.milesfaster.co.uk/postcodes/sw6-london-hotels.htm"/>
-    <hyperlink ref="B100" r:id="rId37" display="https://www.milesfaster.co.uk/postcodes/sw7-london-hotels.htm"/>
-    <hyperlink ref="B101" r:id="rId38" display="https://www.milesfaster.co.uk/postcodes/sw8-lambeth-vauxhall-hotels.htm"/>
-    <hyperlink ref="B40" r:id="rId39" display="https://www.milesfaster.co.uk/postcodes/n10-london-hotels.htm"/>
-    <hyperlink ref="B103" r:id="rId40" display="https://www.milesfaster.co.uk/postcodes/sw10-london-hotels.htm"/>
-    <hyperlink ref="B104" r:id="rId41" display="https://www.milesfaster.co.uk/postcodes/sw11-battersea-hotels.htm"/>
-    <hyperlink ref="B42" r:id="rId42" display="https://www.milesfaster.co.uk/postcodes/n12-north-finchley-hotels.htm"/>
-    <hyperlink ref="B105" r:id="rId43" display="https://www.milesfaster.co.uk/postcodes/sw12-london-hotels.htm"/>
-    <hyperlink ref="B108" r:id="rId44" display="https://www.milesfaster.co.uk/postcodes/sw15-london-hotels.htm"/>
-    <hyperlink ref="B109" r:id="rId45" display="https://www.milesfaster.co.uk/postcodes/sw16-london-hotels.htm"/>
-    <hyperlink ref="B111" r:id="rId46" display="https://www.milesfaster.co.uk/hotels/london/sw18/"/>
-    <hyperlink ref="B112" r:id="rId47" display="https://www.milesfaster.co.uk/postcodes/sw19-london-hotels.htm"/>
-    <hyperlink ref="B50" r:id="rId48" display="https://www.milesfaster.co.uk/postcodes/n20-london-hotels.htm"/>
-    <hyperlink ref="B115" r:id="rId49" display="https://www.milesfaster.co.uk/postcodes/w1-london-hotels.htm"/>
-    <hyperlink ref="B116" r:id="rId50" display="https://www.milesfaster.co.uk/postcodes/w2-london-hotels.htm"/>
-    <hyperlink ref="B54" r:id="rId51" display="https://www.milesfaster.co.uk/postcodes/nw1-london-hotels.htm"/>
-    <hyperlink ref="B117" r:id="rId52" display="https://www.milesfaster.co.uk/hotels/london/w3/"/>
-    <hyperlink ref="B55" r:id="rId53" display="https://www.milesfaster.co.uk/postcodes/nw2-london-hotels.htm"/>
-    <hyperlink ref="B118" r:id="rId54" display="https://www.milesfaster.co.uk/postcodes/w4-london-hotels.htm"/>
-    <hyperlink ref="B56" r:id="rId55" display="https://www.milesfaster.co.uk/postcodes/nw3-london-hotels.htm"/>
-    <hyperlink ref="B119" r:id="rId56" display="https://www.milesfaster.co.uk/postcodes/w5-london-hotels.htm"/>
-    <hyperlink ref="B57" r:id="rId57" display="https://www.milesfaster.co.uk/postcodes/nw4-london-hotels.htm"/>
-    <hyperlink ref="B120" r:id="rId58" display="https://www.milesfaster.co.uk/postcodes/w6-london-hotels.htm"/>
-    <hyperlink ref="B121" r:id="rId59" display="https://www.milesfaster.co.uk/postcodes/w7-london-hotels.htm"/>
-    <hyperlink ref="B59" r:id="rId60" display="https://www.milesfaster.co.uk/postcodes/nw6-london-hotels.htm"/>
-    <hyperlink ref="B122" r:id="rId61" display="https://www.milesfaster.co.uk/postcodes/w8-london-hotels.htm"/>
-    <hyperlink ref="B60" r:id="rId62" display="https://www.milesfaster.co.uk/postcodes/nw7-london-hotels.htm"/>
-    <hyperlink ref="B123" r:id="rId63" display="https://www.milesfaster.co.uk/postcodes/w9-london-hotels.htm"/>
-    <hyperlink ref="B61" r:id="rId64" display="https://www.milesfaster.co.uk/postcodes/nw8-london-hotels.htm"/>
-    <hyperlink ref="B62" r:id="rId65" display="https://www.milesfaster.co.uk/hotels/london/nw9/"/>
-    <hyperlink ref="B125" r:id="rId66" display="https://www.milesfaster.co.uk/hotels/london/w11/"/>
-    <hyperlink ref="B63" r:id="rId67" display="https://www.milesfaster.co.uk/postcodes/nw10-london-hotels.htm"/>
-    <hyperlink ref="B126" r:id="rId68" display="https://www.milesfaster.co.uk/hotels/london/w12/"/>
-    <hyperlink ref="B64" r:id="rId69" display="https://www.milesfaster.co.uk/postcodes/nw11-london-hotels.htm"/>
-    <hyperlink ref="B127" r:id="rId70" display="https://www.milesfaster.co.uk/hotels/london/w13/"/>
-    <hyperlink ref="B128" r:id="rId71" display="https://www.milesfaster.co.uk/postcodes/w14-london-hotels.htm"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://www.milesfaster.co.uk/postcodes/n1-london-hotels.htm"/>
+    <hyperlink ref="B93" r:id="rId30" display="https://www.milesfaster.co.uk/postcodes/sw1-london-hotels.htm"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://www.milesfaster.co.uk/postcodes/n3-finchley-hotels-london.htm"/>
+    <hyperlink ref="B95" r:id="rId32" display="https://www.milesfaster.co.uk/hotels/london/sw3/"/>
+    <hyperlink ref="B33" r:id="rId33" display="https://www.milesfaster.co.uk/postcodes/n4-london-hotels.htm"/>
+    <hyperlink ref="B96" r:id="rId34" display="https://www.milesfaster.co.uk/postcodes/sw4-london-hotels.htm"/>
+    <hyperlink ref="B97" r:id="rId35" display="https://www.milesfaster.co.uk/postcodes/sw5-london-hotels.htm"/>
+    <hyperlink ref="B98" r:id="rId36" display="https://www.milesfaster.co.uk/postcodes/sw6-london-hotels.htm"/>
+    <hyperlink ref="B99" r:id="rId37" display="https://www.milesfaster.co.uk/postcodes/sw7-london-hotels.htm"/>
+    <hyperlink ref="B100" r:id="rId38" display="https://www.milesfaster.co.uk/postcodes/sw8-lambeth-vauxhall-hotels.htm"/>
+    <hyperlink ref="B39" r:id="rId39" display="https://www.milesfaster.co.uk/postcodes/n10-london-hotels.htm"/>
+    <hyperlink ref="B102" r:id="rId40" display="https://www.milesfaster.co.uk/postcodes/sw10-london-hotels.htm"/>
+    <hyperlink ref="B103" r:id="rId41" display="https://www.milesfaster.co.uk/postcodes/sw11-battersea-hotels.htm"/>
+    <hyperlink ref="B41" r:id="rId42" display="https://www.milesfaster.co.uk/postcodes/n12-north-finchley-hotels.htm"/>
+    <hyperlink ref="B104" r:id="rId43" display="https://www.milesfaster.co.uk/postcodes/sw12-london-hotels.htm"/>
+    <hyperlink ref="B107" r:id="rId44" display="https://www.milesfaster.co.uk/postcodes/sw15-london-hotels.htm"/>
+    <hyperlink ref="B108" r:id="rId45" display="https://www.milesfaster.co.uk/postcodes/sw16-london-hotels.htm"/>
+    <hyperlink ref="B110" r:id="rId46" display="https://www.milesfaster.co.uk/hotels/london/sw18/"/>
+    <hyperlink ref="B111" r:id="rId47" display="https://www.milesfaster.co.uk/postcodes/sw19-london-hotels.htm"/>
+    <hyperlink ref="B49" r:id="rId48" display="https://www.milesfaster.co.uk/postcodes/n20-london-hotels.htm"/>
+    <hyperlink ref="B113" r:id="rId49" display="https://www.milesfaster.co.uk/postcodes/w1-london-hotels.htm"/>
+    <hyperlink ref="B114" r:id="rId50" display="https://www.milesfaster.co.uk/postcodes/w2-london-hotels.htm"/>
+    <hyperlink ref="B53" r:id="rId51" display="https://www.milesfaster.co.uk/postcodes/nw1-london-hotels.htm"/>
+    <hyperlink ref="B115" r:id="rId52" display="https://www.milesfaster.co.uk/hotels/london/w3/"/>
+    <hyperlink ref="B54" r:id="rId53" display="https://www.milesfaster.co.uk/postcodes/nw2-london-hotels.htm"/>
+    <hyperlink ref="B116" r:id="rId54" display="https://www.milesfaster.co.uk/postcodes/w4-london-hotels.htm"/>
+    <hyperlink ref="B55" r:id="rId55" display="https://www.milesfaster.co.uk/postcodes/nw3-london-hotels.htm"/>
+    <hyperlink ref="B117" r:id="rId56" display="https://www.milesfaster.co.uk/postcodes/w5-london-hotels.htm"/>
+    <hyperlink ref="B56" r:id="rId57" display="https://www.milesfaster.co.uk/postcodes/nw4-london-hotels.htm"/>
+    <hyperlink ref="B118" r:id="rId58" display="https://www.milesfaster.co.uk/postcodes/w6-london-hotels.htm"/>
+    <hyperlink ref="B119" r:id="rId59" display="https://www.milesfaster.co.uk/postcodes/w7-london-hotels.htm"/>
+    <hyperlink ref="B58" r:id="rId60" display="https://www.milesfaster.co.uk/postcodes/nw6-london-hotels.htm"/>
+    <hyperlink ref="B120" r:id="rId61" display="https://www.milesfaster.co.uk/postcodes/w8-london-hotels.htm"/>
+    <hyperlink ref="B59" r:id="rId62" display="https://www.milesfaster.co.uk/postcodes/nw7-london-hotels.htm"/>
+    <hyperlink ref="B121" r:id="rId63" display="https://www.milesfaster.co.uk/postcodes/w9-london-hotels.htm"/>
+    <hyperlink ref="B60" r:id="rId64" display="https://www.milesfaster.co.uk/postcodes/nw8-london-hotels.htm"/>
+    <hyperlink ref="B61" r:id="rId65" display="https://www.milesfaster.co.uk/hotels/london/nw9/"/>
+    <hyperlink ref="B123" r:id="rId66" display="https://www.milesfaster.co.uk/hotels/london/w11/"/>
+    <hyperlink ref="B62" r:id="rId67" display="https://www.milesfaster.co.uk/postcodes/nw10-london-hotels.htm"/>
+    <hyperlink ref="B124" r:id="rId68" display="https://www.milesfaster.co.uk/hotels/london/w12/"/>
+    <hyperlink ref="B63" r:id="rId69" display="https://www.milesfaster.co.uk/postcodes/nw11-london-hotels.htm"/>
+    <hyperlink ref="B125" r:id="rId70" display="https://www.milesfaster.co.uk/hotels/london/w13/"/>
+    <hyperlink ref="B126" r:id="rId71" display="https://www.milesfaster.co.uk/postcodes/w14-london-hotels.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
